--- a/outputs/per_model_excel/Mistral-Instruct_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Mistral-Instruct_finetuning_summary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>微调前PPL</t>
+          <t>微调前PPL_WikiText2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>微调后PPL</t>
+          <t>微调后PPL_WikiText2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PPL变化(%)</t>
+          <t>PPL变化(%)_WikiText2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>微调前PPL_PTB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>微调后PPL_PTB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PPL变化(%)_PTB</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>微调前平均ACC</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>微调后平均ACC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ACC变化(%)</t>
         </is>
@@ -501,12 +516,21 @@
         <v>-12.88</v>
       </c>
       <c r="F2" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="G2" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-14.76</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.5915</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0.6128</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -529,152 +553,243 @@
         <v>-0.04</v>
       </c>
       <c r="F3" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.6543</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.6545</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.25</v>
+        <v>5.72</v>
       </c>
       <c r="C4" t="n">
-        <v>5.56</v>
+        <v>27.53</v>
       </c>
       <c r="D4" t="n">
-        <v>5.56</v>
+        <v>9.6</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04</v>
+        <v>-65.11</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7351</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7348</v>
+        <v>30.13</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05</v>
+        <v>-58.53</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6561</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.8</v>
+        <v>7.25</v>
       </c>
       <c r="C5" t="n">
-        <v>24.33</v>
+        <v>5.56</v>
       </c>
       <c r="D5" t="n">
-        <v>12.15</v>
+        <v>5.56</v>
       </c>
       <c r="E5" t="n">
-        <v>-50.05</v>
+        <v>-0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6552</v>
+        <v>20.79</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6653</v>
+        <v>20.79</v>
       </c>
       <c r="H5" t="n">
-        <v>1.55</v>
+        <v>0.01</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7351</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7348</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5.8</v>
       </c>
       <c r="C6" t="n">
-        <v>9.09</v>
+        <v>24.33</v>
       </c>
       <c r="D6" t="n">
-        <v>7.79</v>
+        <v>12.15</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.34</v>
+        <v>-50.05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6022999999999999</v>
+        <v>203.59</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6375</v>
+        <v>57.06</v>
       </c>
       <c r="H6" t="n">
-        <v>5.85</v>
+        <v>-71.97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6653</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5.8</v>
       </c>
       <c r="C7" t="n">
-        <v>3248.82</v>
+        <v>9.09</v>
       </c>
       <c r="D7" t="n">
-        <v>46.41</v>
+        <v>7.79</v>
       </c>
       <c r="E7" t="n">
-        <v>-98.56999999999999</v>
+        <v>-14.34</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3455</v>
+        <v>37.54</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4043</v>
+        <v>29.2</v>
       </c>
       <c r="H7" t="n">
-        <v>17.01</v>
+        <v>-22.23</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5.8</v>
       </c>
       <c r="C8" t="n">
+        <v>3248.82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.41</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-98.56999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2675.12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>130.09</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-95.14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wanda</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C9" t="n">
         <v>9645.84</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14450.9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>49.81</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
+        <v>9803.66</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15684.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.3483</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J9" t="n">
         <v>0.3515</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K9" t="n">
         <v>0.92</v>
       </c>
     </row>
@@ -689,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,80 +869,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8581</v>
+        <v>0.8306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8587</v>
+        <v>0.8593</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7462</v>
+        <v>0.8581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8083</v>
+        <v>0.8587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0621</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6361</v>
+        <v>0.7462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7508</v>
+        <v>0.8083</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1147</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3817</v>
+        <v>0.6361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6052</v>
+        <v>0.7508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2235</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3817</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6052</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2235</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.4046</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.4257</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.0211</v>
       </c>
     </row>
@@ -842,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,80 +1038,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8275</v>
+        <v>0.7231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8264</v>
+        <v>0.7481</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0011</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8041</v>
+        <v>0.8275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8025</v>
+        <v>0.8264</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0016</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7709</v>
+        <v>0.8041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7927</v>
+        <v>0.8025</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0218</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4978</v>
+        <v>0.7709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6317</v>
+        <v>0.7927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1339</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6317</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1339</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.4935</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.4875</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>-0.006</v>
       </c>
     </row>
@@ -995,7 +1142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,80 +1207,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8293</v>
+        <v>0.6924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8293</v>
+        <v>0.7255</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7297</v>
+        <v>0.8293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7552</v>
+        <v>0.8293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6752</v>
+        <v>0.7297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7255</v>
+        <v>0.7552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0503</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2563</v>
+        <v>0.6752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2579</v>
+        <v>0.7255</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0016</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2563</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2579</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.2578</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.2622</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.0044</v>
       </c>
     </row>
@@ -1148,7 +1311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,80 +1376,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7419</v>
+        <v>0.6859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7419</v>
+        <v>0.7088</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6077</v>
+        <v>0.7419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6622</v>
+        <v>0.7419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.603</v>
+        <v>0.6077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.614</v>
+        <v>0.6622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.011</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4901</v>
+        <v>0.603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4909</v>
+        <v>0.614</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0008</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4901</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4909</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.4893</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.4799</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>-0.0094</v>
       </c>
     </row>
@@ -1301,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,80 +1545,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8262</v>
+        <v>0.6309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8262</v>
+        <v>0.6957</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7534</v>
+        <v>0.8262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7269</v>
+        <v>0.8262</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0265</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6953</v>
+        <v>0.7534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7201</v>
+        <v>0.7269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0248</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2685</v>
+        <v>0.6953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3102</v>
+        <v>0.7201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0417</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2685</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3102</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0417</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.2601</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.2529</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>-0.0072</v>
       </c>
     </row>
@@ -1454,7 +1649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1519,80 +1714,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5887</v>
+        <v>0.4608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5887</v>
+        <v>0.465</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5094</v>
+        <v>0.5887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4804</v>
+        <v>0.5887</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4258</v>
+        <v>0.5094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4497</v>
+        <v>0.4804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0239</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2799</v>
+        <v>0.4258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2679</v>
+        <v>0.4497</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.012</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2799</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2679</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.2765</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.2884</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.0119</v>
       </c>
     </row>
@@ -1607,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1672,80 +1883,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.474</v>
+        <v>0.356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.472</v>
+        <v>0.39</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.436</v>
+        <v>0.474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.422</v>
+        <v>0.472</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.014</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.41</v>
+        <v>0.436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.41</v>
+        <v>0.422</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.244</v>
+        <v>0.41</v>
       </c>
       <c r="C7" t="n">
-        <v>0.266</v>
+        <v>0.41</v>
       </c>
       <c r="D7" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.256</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.264</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.008</v>
       </c>
     </row>

--- a/outputs/per_model_excel/Mistral-Instruct_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Mistral-Instruct_finetuning_summary.xlsx
@@ -547,28 +547,28 @@
         <v>12.68</v>
       </c>
       <c r="D3" t="n">
-        <v>12.68</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04</v>
+        <v>-29.27</v>
       </c>
       <c r="F3" t="n">
         <v>35.41</v>
       </c>
       <c r="G3" t="n">
-        <v>35.41</v>
+        <v>28.31</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01</v>
+        <v>-20.06</v>
       </c>
       <c r="I3" t="n">
         <v>0.6543</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6545</v>
+        <v>0.6647999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
@@ -769,28 +769,28 @@
         <v>9645.84</v>
       </c>
       <c r="D9" t="n">
-        <v>14450.9</v>
+        <v>16783.88</v>
       </c>
       <c r="E9" t="n">
-        <v>49.81</v>
+        <v>74</v>
       </c>
       <c r="F9" t="n">
         <v>9803.66</v>
       </c>
       <c r="G9" t="n">
-        <v>15684.8</v>
+        <v>17938.98</v>
       </c>
       <c r="H9" t="n">
-        <v>59.99</v>
+        <v>82.98</v>
       </c>
       <c r="I9" t="n">
         <v>0.3483</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3515</v>
+        <v>0.347</v>
       </c>
       <c r="K9" t="n">
-        <v>0.92</v>
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +860,10 @@
         <v>0.8498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8495</v>
+        <v>0.8596</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0003</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="4">
@@ -956,10 +956,10 @@
         <v>0.4046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4257</v>
+        <v>0.4177</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0211</v>
+        <v>0.0131</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1029,10 @@
         <v>0.7296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7301</v>
+        <v>0.7568</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="4">
@@ -1125,10 +1125,10 @@
         <v>0.4935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4875</v>
+        <v>0.4924</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.006</v>
+        <v>-0.0011</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         <v>0.7225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7225</v>
+        <v>0.7442</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="4">
@@ -1294,10 +1294,10 @@
         <v>0.2578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2622</v>
+        <v>0.2632</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0044</v>
+        <v>0.0054</v>
       </c>
     </row>
   </sheetData>
@@ -1367,10 +1367,10 @@
         <v>0.7111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7103</v>
+        <v>0.7088</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0008</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="4">
@@ -1463,10 +1463,10 @@
         <v>0.4893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4799</v>
+        <v>0.4783</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0094</v>
+        <v>-0.011</v>
       </c>
     </row>
   </sheetData>
@@ -1536,10 +1536,10 @@
         <v>0.6843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6848</v>
+        <v>0.7033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="4">
@@ -1632,10 +1632,10 @@
         <v>0.2601</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2529</v>
+        <v>0.2521</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0072</v>
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -1705,10 +1705,10 @@
         <v>0.5009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5026</v>
+        <v>0.471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0017</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="4">
@@ -1801,10 +1801,10 @@
         <v>0.2765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2884</v>
+        <v>0.2816</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0119</v>
+        <v>0.0051</v>
       </c>
     </row>
   </sheetData>
@@ -1874,10 +1874,10 @@
         <v>0.382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.382</v>
+        <v>0.41</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="4">
@@ -1970,10 +1970,10 @@
         <v>0.256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.264</v>
+        <v>0.244</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008</v>
+        <v>-0.012</v>
       </c>
     </row>
   </sheetData>
